--- a/animals/arhtropods/terrestrial_arthropods_data.xlsx
+++ b/animals/arhtropods/terrestrial_arthropods_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Soil" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Carbon content" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Gist &amp; Crossley" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Brockie &amp; Moeed" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sanderson" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="104">
   <si>
     <t xml:space="preserve">Biomass density [g C m^-2]</t>
   </si>
@@ -264,6 +265,81 @@
   </si>
   <si>
     <t xml:space="preserve">Kitazawa (1967) 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from Table 3 in Sanderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area [m^2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass density [g wet weight m^-2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical rain forest (OW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical rain forest (NW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rain-green forest (OW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rain-green forest (NW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical montane / seasonal (OW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical montane / seasonal (NW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temprate forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah / grassland (OW, arid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah / grassland (NW, arid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah / grassland (OW, nonarid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah / grassland (NW, nonarid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temprate grassland / prairie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succulent woods (OW, arid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succulent woods (NW, arid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succulent woods (OW, nonarid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmland / settelment (OW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmland / settelment (NW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patchy woods + crop / grass (OW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patchy woods + crop / grass (NW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediterranean tree / scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry / highland scrub, semidesert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eucalyptus or Acacia</t>
   </si>
 </sst>
 </file>
@@ -278,6 +354,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -298,6 +375,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,16 +464,16 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +592,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,7 +690,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -627,13 +705,13 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,7 +809,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -747,12 +825,16 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="90.3520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +2048,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1981,6 +2063,985 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2.549</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6.537</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.2383</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:X25"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
@@ -1995,957 +3056,361 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1670000000000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1.041</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2680000000000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3.009</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3980000000000</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>680000000000</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3790000000000</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.582</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3500000000000</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2.549</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1070000000000</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>6.537</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>71</v>
+        <v>4030000000000</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>2100000000000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>6360000000000</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>10.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>5190000000000</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>59</v>
+        <v>5200000000000</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>59</v>
+        <v>94</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1480000000000</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>59</v>
+        <v>180000000000</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>59</v>
+        <v>1170000000000</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8.43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1070000000000</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>8.43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>59</v>
+        <v>4710000000000</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5.38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>59</v>
+        <v>2910000000000</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>5.38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>59</v>
+        <v>2910000000000</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>59</v>
+        <v>2750000000000</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>59</v>
+        <v>101</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>900000000000</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>59</v>
+        <v>13200000000000</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.2383</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>66</v>
+        <v>900000000000</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
